--- a/設計書/A1_プロジェクト管理システム/030_アプリ設計/060_コード設計/コード設計書_サンプルプロジェクト.xlsx
+++ b/設計書/A1_プロジェクト管理システム/030_アプリ設計/060_コード設計/コード設計書_サンプルプロジェクト.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B119E5A2-3C12-47E5-B926-315CFCC4DB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268EACE7-CD9C-422F-86A1-157DF3A6BF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="ja" sheetId="27" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">ja!$A$1:$BU$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">ja!$A$1:$BU$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="126">
   <si>
     <t>PJ名</t>
   </si>
@@ -350,16 +350,6 @@
   <si>
     <t>ﾊﾟﾀｰﾝ20</t>
     <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>成果物名</t>
@@ -564,30 +554,6 @@
   </si>
   <si>
     <r>
-      <t>C0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>00001</t>
-    </r>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <r>
       <t>0</t>
     </r>
     <r>
@@ -864,6 +830,109 @@
   <si>
     <t>C0200001</t>
     <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>C0300001</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>C0400001</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ファイル作成要求のステータスを表す。</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>未処理</t>
+    <rPh sb="0" eb="3">
+      <t>ミショリ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>処理中</t>
+    <rPh sb="0" eb="3">
+      <t>ショリチュウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>処理済み</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>処理失敗</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>1.1版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>1. コード設計（日本語）</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ファイル作成要求ステータス追加</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ファイル作成要求ステータス</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1022,7 +1091,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1227,6 +1296,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1240,7 +1333,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1426,6 +1519,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1594,13 +1699,40 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2557,7 +2689,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="J23" s="12" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2571,7 +2703,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="59">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43593</v>
+        <v>44869</v>
       </c>
       <c r="J25" s="59"/>
       <c r="K25" s="59"/>
@@ -3173,57 +3305,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="97" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="104" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="117" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="113" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="122" t="str">
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="126" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="87">
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="128"/>
+      <c r="AG1" s="91">
         <f>IF(D8="","",D8)</f>
         <v>43593</v>
       </c>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="89"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="93"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -3231,53 +3363,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="118"/>
-      <c r="AA2" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="100" t="str">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="104" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="87" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="91">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
-      </c>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="89"/>
+        <v>44869</v>
+      </c>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="93"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -3285,43 +3417,43 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="89"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="123"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="93"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -3356,124 +3488,136 @@
     </row>
     <row r="7" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="90" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="90" t="s">
+      <c r="E7" s="96"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="90" t="s">
+      <c r="H7" s="96"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="92"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="92"/>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="92"/>
-      <c r="AE7" s="91"/>
-      <c r="AF7" s="90" t="s">
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="96"/>
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="95"/>
+      <c r="AF7" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="92"/>
-      <c r="AH7" s="92"/>
-      <c r="AI7" s="91"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="96"/>
+      <c r="AI7" s="95"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79">
+        <v>43593</v>
+      </c>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75">
-        <v>43593</v>
-      </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78" t="s">
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="81" t="s">
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="84" t="s">
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="90"/>
+      <c r="AF8" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG8" s="82"/>
-      <c r="AH8" s="82"/>
-      <c r="AI8" s="83"/>
+      <c r="AG8" s="86"/>
+      <c r="AH8" s="86"/>
+      <c r="AI8" s="87"/>
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="17">
+        <v>2</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>120</v>
+      </c>
       <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
+      <c r="D9" s="62">
+        <v>44869</v>
+      </c>
       <c r="E9" s="63"/>
       <c r="F9" s="64"/>
-      <c r="G9" s="62"/>
+      <c r="G9" s="74" t="s">
+        <v>4</v>
+      </c>
       <c r="H9" s="65"/>
       <c r="I9" s="61"/>
-      <c r="J9" s="66"/>
+      <c r="J9" s="75" t="s">
+        <v>121</v>
+      </c>
       <c r="K9" s="67"/>
       <c r="L9" s="67"/>
       <c r="M9" s="67"/>
       <c r="N9" s="67"/>
       <c r="O9" s="67"/>
       <c r="P9" s="68"/>
-      <c r="Q9" s="69"/>
+      <c r="Q9" s="76" t="s">
+        <v>122</v>
+      </c>
       <c r="R9" s="70"/>
       <c r="S9" s="70"/>
       <c r="T9" s="70"/>
@@ -3488,7 +3632,9 @@
       <c r="AC9" s="70"/>
       <c r="AD9" s="70"/>
       <c r="AE9" s="71"/>
-      <c r="AF9" s="66"/>
+      <c r="AF9" s="75" t="s">
+        <v>123</v>
+      </c>
       <c r="AG9" s="67"/>
       <c r="AH9" s="67"/>
       <c r="AI9" s="68"/>
@@ -4721,163 +4867,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="97" t="str">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="125" t="str">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="129" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>コード設計書</v>
       </c>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="122" t="str">
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="126">
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="128"/>
+      <c r="AG1" s="130">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43593</v>
       </c>
-      <c r="AH1" s="127"/>
-      <c r="AI1" s="128"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="132"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97" t="str">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="118"/>
-      <c r="AA2" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="122" t="str">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="126" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="130">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="127"/>
-      <c r="AI2" s="128"/>
+        <v>44869</v>
+      </c>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="132"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97" t="str">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="122" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="123"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="126" t="str">
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="127"/>
-      <c r="AI3" s="128"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="132"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -4937,7 +5083,7 @@
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
@@ -4998,7 +5144,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -6186,7 +6332,7 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BT46"/>
+  <dimension ref="A1:BT50"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -6198,59 +6344,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="97" t="str">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="152" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="161" t="str">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="165" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="174" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>コード設計書</v>
       </c>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="162"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="94" t="s">
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
+      <c r="V1" s="175"/>
+      <c r="W1" s="175"/>
+      <c r="X1" s="175"/>
+      <c r="Y1" s="175"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="122" t="str">
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="126">
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="128"/>
+      <c r="AG1" s="130">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43593</v>
       </c>
-      <c r="AH1" s="127"/>
-      <c r="AI1" s="128"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="132"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
@@ -6269,54 +6415,54 @@
       <c r="AY1" s="10"/>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97" t="str">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="94" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="178"/>
+      <c r="Z2" s="179"/>
+      <c r="AA2" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="122" t="str">
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="126" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="130">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="127"/>
-      <c r="AI2" s="128"/>
+        <v>44869</v>
+      </c>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="132"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -6335,52 +6481,52 @@
       <c r="AY2" s="10"/>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97" t="str">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="169"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="122" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="181"/>
+      <c r="U3" s="181"/>
+      <c r="V3" s="181"/>
+      <c r="W3" s="181"/>
+      <c r="X3" s="181"/>
+      <c r="Y3" s="181"/>
+      <c r="Z3" s="182"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="126" t="str">
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="127"/>
-      <c r="AI3" s="128"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="132"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -6401,7 +6547,7 @@
     <row r="4" spans="1:72" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:72" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:72" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6423,19 +6569,19 @@
     <row r="10" spans="1:72" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:72" s="14" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="148" t="s">
-        <v>108</v>
+        <v>70</v>
+      </c>
+      <c r="D11" s="161" t="s">
+        <v>106</v>
       </c>
       <c r="E11" s="71"/>
-      <c r="F11" s="149" t="s">
+      <c r="F11" s="162" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="70"/>
       <c r="H11" s="70"/>
       <c r="I11" s="71"/>
-      <c r="J11" s="149" t="s">
+      <c r="J11" s="162" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="70"/>
@@ -6449,65 +6595,65 @@
       <c r="Q11" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="129" t="s">
+      <c r="R11" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="129" t="s">
+      <c r="S11" s="160"/>
+      <c r="T11" s="160"/>
+      <c r="U11" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="130"/>
-      <c r="W11" s="150" t="s">
+      <c r="V11" s="144"/>
+      <c r="W11" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="130"/>
-      <c r="Z11" s="150" t="s">
+      <c r="X11" s="160"/>
+      <c r="Y11" s="144"/>
+      <c r="Z11" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="AA11" s="147"/>
-      <c r="AB11" s="130"/>
-      <c r="AC11" s="129" t="s">
+      <c r="AA11" s="160"/>
+      <c r="AB11" s="144"/>
+      <c r="AC11" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="AD11" s="147"/>
-      <c r="AE11" s="130"/>
-      <c r="AF11" s="129" t="s">
+      <c r="AD11" s="160"/>
+      <c r="AE11" s="144"/>
+      <c r="AF11" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AG11" s="147"/>
-      <c r="AH11" s="130"/>
-      <c r="AI11" s="129" t="s">
+      <c r="AG11" s="160"/>
+      <c r="AH11" s="144"/>
+      <c r="AI11" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="AJ11" s="147"/>
-      <c r="AK11" s="130"/>
-      <c r="AL11" s="129" t="s">
+      <c r="AJ11" s="160"/>
+      <c r="AK11" s="144"/>
+      <c r="AL11" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="AM11" s="147"/>
-      <c r="AN11" s="130"/>
-      <c r="AO11" s="129" t="s">
+      <c r="AM11" s="160"/>
+      <c r="AN11" s="144"/>
+      <c r="AO11" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="AP11" s="147"/>
-      <c r="AQ11" s="130"/>
-      <c r="AR11" s="129" t="s">
+      <c r="AP11" s="160"/>
+      <c r="AQ11" s="144"/>
+      <c r="AR11" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="AS11" s="147"/>
-      <c r="AT11" s="130"/>
-      <c r="AU11" s="129" t="s">
+      <c r="AS11" s="160"/>
+      <c r="AT11" s="144"/>
+      <c r="AU11" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="AV11" s="147"/>
-      <c r="AW11" s="130"/>
-      <c r="AX11" s="129" t="s">
+      <c r="AV11" s="160"/>
+      <c r="AW11" s="144"/>
+      <c r="AX11" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="AY11" s="147"/>
-      <c r="AZ11" s="130"/>
+      <c r="AY11" s="160"/>
+      <c r="AZ11" s="144"/>
       <c r="BA11" s="53" t="s">
         <v>34</v>
       </c>
@@ -6573,36 +6719,36 @@
       <c r="C12" s="54">
         <v>1</v>
       </c>
-      <c r="D12" s="132" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="138" t="s">
+      <c r="D12" s="145" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="146"/>
+      <c r="F12" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="151" t="s">
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="139"/>
-      <c r="N12" s="139"/>
-      <c r="O12" s="140"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="153"/>
       <c r="P12" s="58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q12" s="55">
         <v>1</v>
       </c>
-      <c r="R12" s="131" t="s">
-        <v>82</v>
+      <c r="R12" s="133" t="s">
+        <v>81</v>
       </c>
       <c r="S12" s="70"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="131"/>
+      <c r="U12" s="133"/>
       <c r="V12" s="71"/>
       <c r="W12" s="69"/>
       <c r="X12" s="70"/>
@@ -6637,92 +6783,54 @@
       <c r="BA12" s="54">
         <v>1</v>
       </c>
-      <c r="BB12" s="54">
-        <v>1</v>
-      </c>
-      <c r="BC12" s="54">
-        <v>1</v>
-      </c>
-      <c r="BD12" s="54">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="54">
-        <v>1</v>
-      </c>
-      <c r="BF12" s="54">
-        <v>1</v>
-      </c>
-      <c r="BG12" s="54">
-        <v>1</v>
-      </c>
-      <c r="BH12" s="54">
-        <v>1</v>
-      </c>
-      <c r="BI12" s="54">
-        <v>1</v>
-      </c>
-      <c r="BJ12" s="54">
-        <v>1</v>
-      </c>
-      <c r="BK12" s="54">
-        <v>1</v>
-      </c>
-      <c r="BL12" s="54">
-        <v>1</v>
-      </c>
-      <c r="BM12" s="54">
-        <v>1</v>
-      </c>
-      <c r="BN12" s="54">
-        <v>1</v>
-      </c>
-      <c r="BO12" s="54">
-        <v>1</v>
-      </c>
-      <c r="BP12" s="54">
-        <v>1</v>
-      </c>
-      <c r="BQ12" s="54">
-        <v>1</v>
-      </c>
-      <c r="BR12" s="54">
-        <v>1</v>
-      </c>
-      <c r="BS12" s="54">
-        <v>1</v>
-      </c>
-      <c r="BT12" s="54">
-        <v>1</v>
-      </c>
+      <c r="BB12" s="54"/>
+      <c r="BC12" s="54"/>
+      <c r="BD12" s="54"/>
+      <c r="BE12" s="54"/>
+      <c r="BF12" s="54"/>
+      <c r="BG12" s="54"/>
+      <c r="BH12" s="54"/>
+      <c r="BI12" s="54"/>
+      <c r="BJ12" s="54"/>
+      <c r="BK12" s="54"/>
+      <c r="BL12" s="54"/>
+      <c r="BM12" s="54"/>
+      <c r="BN12" s="54"/>
+      <c r="BO12" s="54"/>
+      <c r="BP12" s="54"/>
+      <c r="BQ12" s="54"/>
+      <c r="BR12" s="54"/>
+      <c r="BS12" s="54"/>
+      <c r="BT12" s="54"/>
     </row>
     <row r="13" spans="1:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="54">
         <v>2</v>
       </c>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="142"/>
-      <c r="M13" s="142"/>
-      <c r="N13" s="142"/>
-      <c r="O13" s="143"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="155"/>
+      <c r="O13" s="156"/>
       <c r="P13" s="58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="55">
         <v>2</v>
       </c>
-      <c r="R13" s="131" t="s">
-        <v>109</v>
+      <c r="R13" s="133" t="s">
+        <v>107</v>
       </c>
       <c r="S13" s="70"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="131"/>
+      <c r="U13" s="133"/>
       <c r="V13" s="71"/>
       <c r="W13" s="69"/>
       <c r="X13" s="70"/>
@@ -6757,92 +6865,54 @@
       <c r="BA13" s="54">
         <v>1</v>
       </c>
-      <c r="BB13" s="54">
-        <v>1</v>
-      </c>
-      <c r="BC13" s="54">
-        <v>1</v>
-      </c>
-      <c r="BD13" s="54">
-        <v>1</v>
-      </c>
-      <c r="BE13" s="54">
-        <v>1</v>
-      </c>
-      <c r="BF13" s="54">
-        <v>1</v>
-      </c>
-      <c r="BG13" s="54">
-        <v>1</v>
-      </c>
-      <c r="BH13" s="54">
-        <v>1</v>
-      </c>
-      <c r="BI13" s="54">
-        <v>1</v>
-      </c>
-      <c r="BJ13" s="54">
-        <v>1</v>
-      </c>
-      <c r="BK13" s="54">
-        <v>1</v>
-      </c>
-      <c r="BL13" s="54">
-        <v>1</v>
-      </c>
-      <c r="BM13" s="54">
-        <v>1</v>
-      </c>
-      <c r="BN13" s="54">
-        <v>1</v>
-      </c>
-      <c r="BO13" s="54">
-        <v>1</v>
-      </c>
-      <c r="BP13" s="54">
-        <v>1</v>
-      </c>
-      <c r="BQ13" s="54">
-        <v>1</v>
-      </c>
-      <c r="BR13" s="54">
-        <v>1</v>
-      </c>
-      <c r="BS13" s="54">
-        <v>1</v>
-      </c>
-      <c r="BT13" s="54">
-        <v>1</v>
-      </c>
+      <c r="BB13" s="54"/>
+      <c r="BC13" s="54"/>
+      <c r="BD13" s="54"/>
+      <c r="BE13" s="54"/>
+      <c r="BF13" s="54"/>
+      <c r="BG13" s="54"/>
+      <c r="BH13" s="54"/>
+      <c r="BI13" s="54"/>
+      <c r="BJ13" s="54"/>
+      <c r="BK13" s="54"/>
+      <c r="BL13" s="54"/>
+      <c r="BM13" s="54"/>
+      <c r="BN13" s="54"/>
+      <c r="BO13" s="54"/>
+      <c r="BP13" s="54"/>
+      <c r="BQ13" s="54"/>
+      <c r="BR13" s="54"/>
+      <c r="BS13" s="54"/>
+      <c r="BT13" s="54"/>
     </row>
     <row r="14" spans="1:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="54">
         <v>3</v>
       </c>
-      <c r="D14" s="136"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="145"/>
-      <c r="O14" s="146"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="159"/>
       <c r="P14" s="58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q14" s="55">
         <v>3</v>
       </c>
-      <c r="R14" s="131" t="s">
-        <v>110</v>
+      <c r="R14" s="133" t="s">
+        <v>108</v>
       </c>
       <c r="S14" s="70"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="131"/>
+      <c r="U14" s="133"/>
       <c r="V14" s="71"/>
       <c r="W14" s="69"/>
       <c r="X14" s="70"/>
@@ -6877,98 +6947,60 @@
       <c r="BA14" s="54">
         <v>1</v>
       </c>
-      <c r="BB14" s="54">
-        <v>1</v>
-      </c>
-      <c r="BC14" s="54">
-        <v>1</v>
-      </c>
-      <c r="BD14" s="54">
-        <v>1</v>
-      </c>
-      <c r="BE14" s="54">
-        <v>1</v>
-      </c>
-      <c r="BF14" s="54">
-        <v>1</v>
-      </c>
-      <c r="BG14" s="54">
-        <v>1</v>
-      </c>
-      <c r="BH14" s="54">
-        <v>1</v>
-      </c>
-      <c r="BI14" s="54">
-        <v>1</v>
-      </c>
-      <c r="BJ14" s="54">
-        <v>1</v>
-      </c>
-      <c r="BK14" s="54">
-        <v>1</v>
-      </c>
-      <c r="BL14" s="54">
-        <v>1</v>
-      </c>
-      <c r="BM14" s="54">
-        <v>1</v>
-      </c>
-      <c r="BN14" s="54">
-        <v>1</v>
-      </c>
-      <c r="BO14" s="54">
-        <v>1</v>
-      </c>
-      <c r="BP14" s="54">
-        <v>1</v>
-      </c>
-      <c r="BQ14" s="54">
-        <v>1</v>
-      </c>
-      <c r="BR14" s="54">
-        <v>1</v>
-      </c>
-      <c r="BS14" s="54">
-        <v>1</v>
-      </c>
-      <c r="BT14" s="54">
-        <v>1</v>
-      </c>
+      <c r="BB14" s="54"/>
+      <c r="BC14" s="54"/>
+      <c r="BD14" s="54"/>
+      <c r="BE14" s="54"/>
+      <c r="BF14" s="54"/>
+      <c r="BG14" s="54"/>
+      <c r="BH14" s="54"/>
+      <c r="BI14" s="54"/>
+      <c r="BJ14" s="54"/>
+      <c r="BK14" s="54"/>
+      <c r="BL14" s="54"/>
+      <c r="BM14" s="54"/>
+      <c r="BN14" s="54"/>
+      <c r="BO14" s="54"/>
+      <c r="BP14" s="54"/>
+      <c r="BQ14" s="54"/>
+      <c r="BR14" s="54"/>
+      <c r="BS14" s="54"/>
+      <c r="BT14" s="54"/>
     </row>
     <row r="15" spans="1:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="54">
         <v>4</v>
       </c>
-      <c r="D15" s="132" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="178"/>
-      <c r="F15" s="138" t="s">
+      <c r="D15" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="191"/>
+      <c r="F15" s="151" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="184"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="138" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="171"/>
-      <c r="L15" s="171"/>
-      <c r="M15" s="171"/>
-      <c r="N15" s="171"/>
-      <c r="O15" s="172"/>
+      <c r="K15" s="184"/>
+      <c r="L15" s="184"/>
+      <c r="M15" s="184"/>
+      <c r="N15" s="184"/>
+      <c r="O15" s="185"/>
       <c r="P15" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q15" s="55">
         <v>1</v>
       </c>
-      <c r="R15" s="131" t="s">
-        <v>81</v>
+      <c r="R15" s="133" t="s">
+        <v>80</v>
       </c>
       <c r="S15" s="70"/>
       <c r="T15" s="70"/>
-      <c r="U15" s="131"/>
+      <c r="U15" s="133"/>
       <c r="V15" s="71"/>
       <c r="W15" s="69"/>
       <c r="X15" s="70"/>
@@ -7003,92 +7035,54 @@
       <c r="BA15" s="54">
         <v>1</v>
       </c>
-      <c r="BB15" s="54">
-        <v>1</v>
-      </c>
-      <c r="BC15" s="54">
-        <v>1</v>
-      </c>
-      <c r="BD15" s="54">
-        <v>1</v>
-      </c>
-      <c r="BE15" s="54">
-        <v>1</v>
-      </c>
-      <c r="BF15" s="54">
-        <v>1</v>
-      </c>
-      <c r="BG15" s="54">
-        <v>1</v>
-      </c>
-      <c r="BH15" s="54">
-        <v>1</v>
-      </c>
-      <c r="BI15" s="54">
-        <v>1</v>
-      </c>
-      <c r="BJ15" s="54">
-        <v>1</v>
-      </c>
-      <c r="BK15" s="54">
-        <v>1</v>
-      </c>
-      <c r="BL15" s="54">
-        <v>1</v>
-      </c>
-      <c r="BM15" s="54">
-        <v>1</v>
-      </c>
-      <c r="BN15" s="54">
-        <v>1</v>
-      </c>
-      <c r="BO15" s="54">
-        <v>1</v>
-      </c>
-      <c r="BP15" s="54">
-        <v>1</v>
-      </c>
-      <c r="BQ15" s="54">
-        <v>1</v>
-      </c>
-      <c r="BR15" s="54">
-        <v>1</v>
-      </c>
-      <c r="BS15" s="54">
-        <v>1</v>
-      </c>
-      <c r="BT15" s="54">
-        <v>1</v>
-      </c>
+      <c r="BB15" s="54"/>
+      <c r="BC15" s="54"/>
+      <c r="BD15" s="54"/>
+      <c r="BE15" s="54"/>
+      <c r="BF15" s="54"/>
+      <c r="BG15" s="54"/>
+      <c r="BH15" s="54"/>
+      <c r="BI15" s="54"/>
+      <c r="BJ15" s="54"/>
+      <c r="BK15" s="54"/>
+      <c r="BL15" s="54"/>
+      <c r="BM15" s="54"/>
+      <c r="BN15" s="54"/>
+      <c r="BO15" s="54"/>
+      <c r="BP15" s="54"/>
+      <c r="BQ15" s="54"/>
+      <c r="BR15" s="54"/>
+      <c r="BS15" s="54"/>
+      <c r="BT15" s="54"/>
     </row>
     <row r="16" spans="1:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="54">
         <v>5</v>
       </c>
-      <c r="D16" s="179"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="173"/>
-      <c r="L16" s="173"/>
-      <c r="M16" s="173"/>
-      <c r="N16" s="173"/>
-      <c r="O16" s="174"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="186"/>
+      <c r="L16" s="186"/>
+      <c r="M16" s="186"/>
+      <c r="N16" s="186"/>
+      <c r="O16" s="187"/>
       <c r="P16" s="58" t="s">
         <v>17</v>
       </c>
       <c r="Q16" s="55">
         <v>2</v>
       </c>
-      <c r="R16" s="131" t="s">
-        <v>76</v>
+      <c r="R16" s="133" t="s">
+        <v>75</v>
       </c>
       <c r="S16" s="70"/>
       <c r="T16" s="70"/>
-      <c r="U16" s="131"/>
+      <c r="U16" s="133"/>
       <c r="V16" s="71"/>
       <c r="W16" s="69"/>
       <c r="X16" s="70"/>
@@ -7123,92 +7117,54 @@
       <c r="BA16" s="54">
         <v>1</v>
       </c>
-      <c r="BB16" s="54">
-        <v>1</v>
-      </c>
-      <c r="BC16" s="54">
-        <v>1</v>
-      </c>
-      <c r="BD16" s="54">
-        <v>1</v>
-      </c>
-      <c r="BE16" s="54">
-        <v>1</v>
-      </c>
-      <c r="BF16" s="54">
-        <v>1</v>
-      </c>
-      <c r="BG16" s="54">
-        <v>1</v>
-      </c>
-      <c r="BH16" s="54">
-        <v>1</v>
-      </c>
-      <c r="BI16" s="54">
-        <v>1</v>
-      </c>
-      <c r="BJ16" s="54">
-        <v>1</v>
-      </c>
-      <c r="BK16" s="54">
-        <v>1</v>
-      </c>
-      <c r="BL16" s="54">
-        <v>1</v>
-      </c>
-      <c r="BM16" s="54">
-        <v>1</v>
-      </c>
-      <c r="BN16" s="54">
-        <v>1</v>
-      </c>
-      <c r="BO16" s="54">
-        <v>1</v>
-      </c>
-      <c r="BP16" s="54">
-        <v>1</v>
-      </c>
-      <c r="BQ16" s="54">
-        <v>1</v>
-      </c>
-      <c r="BR16" s="54">
-        <v>1</v>
-      </c>
-      <c r="BS16" s="54">
-        <v>1</v>
-      </c>
-      <c r="BT16" s="54">
-        <v>1</v>
-      </c>
+      <c r="BB16" s="54"/>
+      <c r="BC16" s="54"/>
+      <c r="BD16" s="54"/>
+      <c r="BE16" s="54"/>
+      <c r="BF16" s="54"/>
+      <c r="BG16" s="54"/>
+      <c r="BH16" s="54"/>
+      <c r="BI16" s="54"/>
+      <c r="BJ16" s="54"/>
+      <c r="BK16" s="54"/>
+      <c r="BL16" s="54"/>
+      <c r="BM16" s="54"/>
+      <c r="BN16" s="54"/>
+      <c r="BO16" s="54"/>
+      <c r="BP16" s="54"/>
+      <c r="BQ16" s="54"/>
+      <c r="BR16" s="54"/>
+      <c r="BS16" s="54"/>
+      <c r="BT16" s="54"/>
     </row>
     <row r="17" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="54">
         <v>6</v>
       </c>
-      <c r="D17" s="179"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="173"/>
-      <c r="L17" s="173"/>
-      <c r="M17" s="173"/>
-      <c r="N17" s="173"/>
-      <c r="O17" s="174"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="186"/>
+      <c r="L17" s="186"/>
+      <c r="M17" s="186"/>
+      <c r="N17" s="186"/>
+      <c r="O17" s="187"/>
       <c r="P17" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="55">
         <v>3</v>
       </c>
-      <c r="R17" s="131" t="s">
-        <v>77</v>
+      <c r="R17" s="133" t="s">
+        <v>76</v>
       </c>
       <c r="S17" s="70"/>
       <c r="T17" s="70"/>
-      <c r="U17" s="131"/>
+      <c r="U17" s="133"/>
       <c r="V17" s="71"/>
       <c r="W17" s="69"/>
       <c r="X17" s="70"/>
@@ -7243,92 +7199,54 @@
       <c r="BA17" s="54">
         <v>1</v>
       </c>
-      <c r="BB17" s="54">
-        <v>1</v>
-      </c>
-      <c r="BC17" s="54">
-        <v>1</v>
-      </c>
-      <c r="BD17" s="54">
-        <v>1</v>
-      </c>
-      <c r="BE17" s="54">
-        <v>1</v>
-      </c>
-      <c r="BF17" s="54">
-        <v>1</v>
-      </c>
-      <c r="BG17" s="54">
-        <v>1</v>
-      </c>
-      <c r="BH17" s="54">
-        <v>1</v>
-      </c>
-      <c r="BI17" s="54">
-        <v>1</v>
-      </c>
-      <c r="BJ17" s="54">
-        <v>1</v>
-      </c>
-      <c r="BK17" s="54">
-        <v>1</v>
-      </c>
-      <c r="BL17" s="54">
-        <v>1</v>
-      </c>
-      <c r="BM17" s="54">
-        <v>1</v>
-      </c>
-      <c r="BN17" s="54">
-        <v>1</v>
-      </c>
-      <c r="BO17" s="54">
-        <v>1</v>
-      </c>
-      <c r="BP17" s="54">
-        <v>1</v>
-      </c>
-      <c r="BQ17" s="54">
-        <v>1</v>
-      </c>
-      <c r="BR17" s="54">
-        <v>1</v>
-      </c>
-      <c r="BS17" s="54">
-        <v>1</v>
-      </c>
-      <c r="BT17" s="54">
-        <v>1</v>
-      </c>
+      <c r="BB17" s="54"/>
+      <c r="BC17" s="54"/>
+      <c r="BD17" s="54"/>
+      <c r="BE17" s="54"/>
+      <c r="BF17" s="54"/>
+      <c r="BG17" s="54"/>
+      <c r="BH17" s="54"/>
+      <c r="BI17" s="54"/>
+      <c r="BJ17" s="54"/>
+      <c r="BK17" s="54"/>
+      <c r="BL17" s="54"/>
+      <c r="BM17" s="54"/>
+      <c r="BN17" s="54"/>
+      <c r="BO17" s="54"/>
+      <c r="BP17" s="54"/>
+      <c r="BQ17" s="54"/>
+      <c r="BR17" s="54"/>
+      <c r="BS17" s="54"/>
+      <c r="BT17" s="54"/>
     </row>
     <row r="18" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="54">
         <v>7</v>
       </c>
-      <c r="D18" s="179"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="173"/>
-      <c r="L18" s="173"/>
-      <c r="M18" s="173"/>
-      <c r="N18" s="173"/>
-      <c r="O18" s="174"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="186"/>
+      <c r="L18" s="186"/>
+      <c r="M18" s="186"/>
+      <c r="N18" s="186"/>
+      <c r="O18" s="187"/>
       <c r="P18" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q18" s="55">
         <v>4</v>
       </c>
-      <c r="R18" s="131" t="s">
-        <v>78</v>
+      <c r="R18" s="133" t="s">
+        <v>77</v>
       </c>
       <c r="S18" s="70"/>
       <c r="T18" s="70"/>
-      <c r="U18" s="131"/>
+      <c r="U18" s="133"/>
       <c r="V18" s="71"/>
       <c r="W18" s="69"/>
       <c r="X18" s="70"/>
@@ -7363,92 +7281,54 @@
       <c r="BA18" s="54">
         <v>1</v>
       </c>
-      <c r="BB18" s="54">
-        <v>1</v>
-      </c>
-      <c r="BC18" s="54">
-        <v>1</v>
-      </c>
-      <c r="BD18" s="54">
-        <v>1</v>
-      </c>
-      <c r="BE18" s="54">
-        <v>1</v>
-      </c>
-      <c r="BF18" s="54">
-        <v>1</v>
-      </c>
-      <c r="BG18" s="54">
-        <v>1</v>
-      </c>
-      <c r="BH18" s="54">
-        <v>1</v>
-      </c>
-      <c r="BI18" s="54">
-        <v>1</v>
-      </c>
-      <c r="BJ18" s="54">
-        <v>1</v>
-      </c>
-      <c r="BK18" s="54">
-        <v>1</v>
-      </c>
-      <c r="BL18" s="54">
-        <v>1</v>
-      </c>
-      <c r="BM18" s="54">
-        <v>1</v>
-      </c>
-      <c r="BN18" s="54">
-        <v>1</v>
-      </c>
-      <c r="BO18" s="54">
-        <v>1</v>
-      </c>
-      <c r="BP18" s="54">
-        <v>1</v>
-      </c>
-      <c r="BQ18" s="54">
-        <v>1</v>
-      </c>
-      <c r="BR18" s="54">
-        <v>1</v>
-      </c>
-      <c r="BS18" s="54">
-        <v>1</v>
-      </c>
-      <c r="BT18" s="54">
-        <v>1</v>
-      </c>
+      <c r="BB18" s="54"/>
+      <c r="BC18" s="54"/>
+      <c r="BD18" s="54"/>
+      <c r="BE18" s="54"/>
+      <c r="BF18" s="54"/>
+      <c r="BG18" s="54"/>
+      <c r="BH18" s="54"/>
+      <c r="BI18" s="54"/>
+      <c r="BJ18" s="54"/>
+      <c r="BK18" s="54"/>
+      <c r="BL18" s="54"/>
+      <c r="BM18" s="54"/>
+      <c r="BN18" s="54"/>
+      <c r="BO18" s="54"/>
+      <c r="BP18" s="54"/>
+      <c r="BQ18" s="54"/>
+      <c r="BR18" s="54"/>
+      <c r="BS18" s="54"/>
+      <c r="BT18" s="54"/>
     </row>
     <row r="19" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="54">
         <v>8</v>
       </c>
-      <c r="D19" s="179"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="173"/>
-      <c r="L19" s="173"/>
-      <c r="M19" s="173"/>
-      <c r="N19" s="173"/>
-      <c r="O19" s="174"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="186"/>
+      <c r="L19" s="186"/>
+      <c r="M19" s="186"/>
+      <c r="N19" s="186"/>
+      <c r="O19" s="187"/>
       <c r="P19" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="55">
         <v>5</v>
       </c>
-      <c r="R19" s="131" t="s">
-        <v>79</v>
+      <c r="R19" s="133" t="s">
+        <v>78</v>
       </c>
       <c r="S19" s="70"/>
       <c r="T19" s="70"/>
-      <c r="U19" s="131"/>
+      <c r="U19" s="133"/>
       <c r="V19" s="71"/>
       <c r="W19" s="69"/>
       <c r="X19" s="70"/>
@@ -7483,92 +7363,54 @@
       <c r="BA19" s="54">
         <v>1</v>
       </c>
-      <c r="BB19" s="54">
-        <v>1</v>
-      </c>
-      <c r="BC19" s="54">
-        <v>1</v>
-      </c>
-      <c r="BD19" s="54">
-        <v>1</v>
-      </c>
-      <c r="BE19" s="54">
-        <v>1</v>
-      </c>
-      <c r="BF19" s="54">
-        <v>1</v>
-      </c>
-      <c r="BG19" s="54">
-        <v>1</v>
-      </c>
-      <c r="BH19" s="54">
-        <v>1</v>
-      </c>
-      <c r="BI19" s="54">
-        <v>1</v>
-      </c>
-      <c r="BJ19" s="54">
-        <v>1</v>
-      </c>
-      <c r="BK19" s="54">
-        <v>1</v>
-      </c>
-      <c r="BL19" s="54">
-        <v>1</v>
-      </c>
-      <c r="BM19" s="54">
-        <v>1</v>
-      </c>
-      <c r="BN19" s="54">
-        <v>1</v>
-      </c>
-      <c r="BO19" s="54">
-        <v>1</v>
-      </c>
-      <c r="BP19" s="54">
-        <v>1</v>
-      </c>
-      <c r="BQ19" s="54">
-        <v>1</v>
-      </c>
-      <c r="BR19" s="54">
-        <v>1</v>
-      </c>
-      <c r="BS19" s="54">
-        <v>1</v>
-      </c>
-      <c r="BT19" s="54">
-        <v>1</v>
-      </c>
+      <c r="BB19" s="54"/>
+      <c r="BC19" s="54"/>
+      <c r="BD19" s="54"/>
+      <c r="BE19" s="54"/>
+      <c r="BF19" s="54"/>
+      <c r="BG19" s="54"/>
+      <c r="BH19" s="54"/>
+      <c r="BI19" s="54"/>
+      <c r="BJ19" s="54"/>
+      <c r="BK19" s="54"/>
+      <c r="BL19" s="54"/>
+      <c r="BM19" s="54"/>
+      <c r="BN19" s="54"/>
+      <c r="BO19" s="54"/>
+      <c r="BP19" s="54"/>
+      <c r="BQ19" s="54"/>
+      <c r="BR19" s="54"/>
+      <c r="BS19" s="54"/>
+      <c r="BT19" s="54"/>
     </row>
     <row r="20" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="54">
         <v>9</v>
       </c>
-      <c r="D20" s="181"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="176"/>
-      <c r="L20" s="176"/>
-      <c r="M20" s="176"/>
-      <c r="N20" s="176"/>
-      <c r="O20" s="177"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="189"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="190"/>
+      <c r="J20" s="188"/>
+      <c r="K20" s="189"/>
+      <c r="L20" s="189"/>
+      <c r="M20" s="189"/>
+      <c r="N20" s="189"/>
+      <c r="O20" s="190"/>
       <c r="P20" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q20" s="55">
         <v>6</v>
       </c>
-      <c r="R20" s="131" t="s">
-        <v>80</v>
+      <c r="R20" s="133" t="s">
+        <v>79</v>
       </c>
       <c r="S20" s="70"/>
       <c r="T20" s="70"/>
-      <c r="U20" s="131"/>
+      <c r="U20" s="133"/>
       <c r="V20" s="71"/>
       <c r="W20" s="69"/>
       <c r="X20" s="70"/>
@@ -7603,94 +7445,56 @@
       <c r="BA20" s="54">
         <v>1</v>
       </c>
-      <c r="BB20" s="54">
-        <v>1</v>
-      </c>
-      <c r="BC20" s="54">
-        <v>1</v>
-      </c>
-      <c r="BD20" s="54">
-        <v>1</v>
-      </c>
-      <c r="BE20" s="54">
-        <v>1</v>
-      </c>
-      <c r="BF20" s="54">
-        <v>1</v>
-      </c>
-      <c r="BG20" s="54">
-        <v>1</v>
-      </c>
-      <c r="BH20" s="54">
-        <v>1</v>
-      </c>
-      <c r="BI20" s="54">
-        <v>1</v>
-      </c>
-      <c r="BJ20" s="54">
-        <v>1</v>
-      </c>
-      <c r="BK20" s="54">
-        <v>1</v>
-      </c>
-      <c r="BL20" s="54">
-        <v>1</v>
-      </c>
-      <c r="BM20" s="54">
-        <v>1</v>
-      </c>
-      <c r="BN20" s="54">
-        <v>1</v>
-      </c>
-      <c r="BO20" s="54">
-        <v>1</v>
-      </c>
-      <c r="BP20" s="54">
-        <v>1</v>
-      </c>
-      <c r="BQ20" s="54">
-        <v>1</v>
-      </c>
-      <c r="BR20" s="54">
-        <v>1</v>
-      </c>
-      <c r="BS20" s="54">
-        <v>1</v>
-      </c>
-      <c r="BT20" s="54">
-        <v>1</v>
-      </c>
+      <c r="BB20" s="54"/>
+      <c r="BC20" s="54"/>
+      <c r="BD20" s="54"/>
+      <c r="BE20" s="54"/>
+      <c r="BF20" s="54"/>
+      <c r="BG20" s="54"/>
+      <c r="BH20" s="54"/>
+      <c r="BI20" s="54"/>
+      <c r="BJ20" s="54"/>
+      <c r="BK20" s="54"/>
+      <c r="BL20" s="54"/>
+      <c r="BM20" s="54"/>
+      <c r="BN20" s="54"/>
+      <c r="BO20" s="54"/>
+      <c r="BP20" s="54"/>
+      <c r="BQ20" s="54"/>
+      <c r="BR20" s="54"/>
+      <c r="BS20" s="54"/>
+      <c r="BT20" s="54"/>
     </row>
     <row r="21" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="54">
         <v>10</v>
       </c>
-      <c r="D21" s="132" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="178"/>
-      <c r="F21" s="138" t="s">
+      <c r="D21" s="145" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="191"/>
+      <c r="F21" s="151" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="138" t="s">
-        <v>73</v>
-      </c>
-      <c r="K21" s="139"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="140"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="152"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="153"/>
       <c r="P21" s="58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q21" s="55">
         <v>1</v>
       </c>
-      <c r="R21" s="131" t="s">
-        <v>98</v>
+      <c r="R21" s="133" t="s">
+        <v>96</v>
       </c>
       <c r="S21" s="70"/>
       <c r="T21" s="70"/>
@@ -7729,88 +7533,50 @@
       <c r="BA21" s="54">
         <v>1</v>
       </c>
-      <c r="BB21" s="54">
-        <v>1</v>
-      </c>
-      <c r="BC21" s="54">
-        <v>1</v>
-      </c>
-      <c r="BD21" s="54">
-        <v>1</v>
-      </c>
-      <c r="BE21" s="54">
-        <v>1</v>
-      </c>
-      <c r="BF21" s="54">
-        <v>1</v>
-      </c>
-      <c r="BG21" s="54">
-        <v>1</v>
-      </c>
-      <c r="BH21" s="54">
-        <v>1</v>
-      </c>
-      <c r="BI21" s="54">
-        <v>1</v>
-      </c>
-      <c r="BJ21" s="54">
-        <v>1</v>
-      </c>
-      <c r="BK21" s="54">
-        <v>1</v>
-      </c>
-      <c r="BL21" s="54">
-        <v>1</v>
-      </c>
-      <c r="BM21" s="54">
-        <v>1</v>
-      </c>
-      <c r="BN21" s="54">
-        <v>1</v>
-      </c>
-      <c r="BO21" s="54">
-        <v>1</v>
-      </c>
-      <c r="BP21" s="54">
-        <v>1</v>
-      </c>
-      <c r="BQ21" s="54">
-        <v>1</v>
-      </c>
-      <c r="BR21" s="54">
-        <v>1</v>
-      </c>
-      <c r="BS21" s="54">
-        <v>1</v>
-      </c>
-      <c r="BT21" s="54">
-        <v>1</v>
-      </c>
+      <c r="BB21" s="54"/>
+      <c r="BC21" s="54"/>
+      <c r="BD21" s="54"/>
+      <c r="BE21" s="54"/>
+      <c r="BF21" s="54"/>
+      <c r="BG21" s="54"/>
+      <c r="BH21" s="54"/>
+      <c r="BI21" s="54"/>
+      <c r="BJ21" s="54"/>
+      <c r="BK21" s="54"/>
+      <c r="BL21" s="54"/>
+      <c r="BM21" s="54"/>
+      <c r="BN21" s="54"/>
+      <c r="BO21" s="54"/>
+      <c r="BP21" s="54"/>
+      <c r="BQ21" s="54"/>
+      <c r="BR21" s="54"/>
+      <c r="BS21" s="54"/>
+      <c r="BT21" s="54"/>
     </row>
     <row r="22" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="54">
         <v>11</v>
       </c>
-      <c r="D22" s="179"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="142"/>
-      <c r="O22" s="143"/>
+      <c r="D22" s="192"/>
+      <c r="E22" s="193"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="155"/>
+      <c r="O22" s="156"/>
       <c r="P22" s="58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="55">
         <v>2</v>
       </c>
-      <c r="R22" s="131" t="s">
-        <v>99</v>
+      <c r="R22" s="133" t="s">
+        <v>97</v>
       </c>
       <c r="S22" s="70"/>
       <c r="T22" s="70"/>
@@ -7849,88 +7615,50 @@
       <c r="BA22" s="54">
         <v>1</v>
       </c>
-      <c r="BB22" s="54">
-        <v>1</v>
-      </c>
-      <c r="BC22" s="54">
-        <v>1</v>
-      </c>
-      <c r="BD22" s="54">
-        <v>1</v>
-      </c>
-      <c r="BE22" s="54">
-        <v>1</v>
-      </c>
-      <c r="BF22" s="54">
-        <v>1</v>
-      </c>
-      <c r="BG22" s="54">
-        <v>1</v>
-      </c>
-      <c r="BH22" s="54">
-        <v>1</v>
-      </c>
-      <c r="BI22" s="54">
-        <v>1</v>
-      </c>
-      <c r="BJ22" s="54">
-        <v>1</v>
-      </c>
-      <c r="BK22" s="54">
-        <v>1</v>
-      </c>
-      <c r="BL22" s="54">
-        <v>1</v>
-      </c>
-      <c r="BM22" s="54">
-        <v>1</v>
-      </c>
-      <c r="BN22" s="54">
-        <v>1</v>
-      </c>
-      <c r="BO22" s="54">
-        <v>1</v>
-      </c>
-      <c r="BP22" s="54">
-        <v>1</v>
-      </c>
-      <c r="BQ22" s="54">
-        <v>1</v>
-      </c>
-      <c r="BR22" s="54">
-        <v>1</v>
-      </c>
-      <c r="BS22" s="54">
-        <v>1</v>
-      </c>
-      <c r="BT22" s="54">
-        <v>1</v>
-      </c>
+      <c r="BB22" s="54"/>
+      <c r="BC22" s="54"/>
+      <c r="BD22" s="54"/>
+      <c r="BE22" s="54"/>
+      <c r="BF22" s="54"/>
+      <c r="BG22" s="54"/>
+      <c r="BH22" s="54"/>
+      <c r="BI22" s="54"/>
+      <c r="BJ22" s="54"/>
+      <c r="BK22" s="54"/>
+      <c r="BL22" s="54"/>
+      <c r="BM22" s="54"/>
+      <c r="BN22" s="54"/>
+      <c r="BO22" s="54"/>
+      <c r="BP22" s="54"/>
+      <c r="BQ22" s="54"/>
+      <c r="BR22" s="54"/>
+      <c r="BS22" s="54"/>
+      <c r="BT22" s="54"/>
     </row>
     <row r="23" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="54">
         <v>12</v>
       </c>
-      <c r="D23" s="179"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="142"/>
-      <c r="N23" s="142"/>
-      <c r="O23" s="143"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="155"/>
+      <c r="O23" s="156"/>
       <c r="P23" s="58" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q23" s="55">
         <v>3</v>
       </c>
-      <c r="R23" s="131" t="s">
-        <v>100</v>
+      <c r="R23" s="133" t="s">
+        <v>98</v>
       </c>
       <c r="S23" s="70"/>
       <c r="T23" s="70"/>
@@ -7969,88 +7697,50 @@
       <c r="BA23" s="54">
         <v>1</v>
       </c>
-      <c r="BB23" s="54">
-        <v>1</v>
-      </c>
-      <c r="BC23" s="54">
-        <v>1</v>
-      </c>
-      <c r="BD23" s="54">
-        <v>1</v>
-      </c>
-      <c r="BE23" s="54">
-        <v>1</v>
-      </c>
-      <c r="BF23" s="54">
-        <v>1</v>
-      </c>
-      <c r="BG23" s="54">
-        <v>1</v>
-      </c>
-      <c r="BH23" s="54">
-        <v>1</v>
-      </c>
-      <c r="BI23" s="54">
-        <v>1</v>
-      </c>
-      <c r="BJ23" s="54">
-        <v>1</v>
-      </c>
-      <c r="BK23" s="54">
-        <v>1</v>
-      </c>
-      <c r="BL23" s="54">
-        <v>1</v>
-      </c>
-      <c r="BM23" s="54">
-        <v>1</v>
-      </c>
-      <c r="BN23" s="54">
-        <v>1</v>
-      </c>
-      <c r="BO23" s="54">
-        <v>1</v>
-      </c>
-      <c r="BP23" s="54">
-        <v>1</v>
-      </c>
-      <c r="BQ23" s="54">
-        <v>1</v>
-      </c>
-      <c r="BR23" s="54">
-        <v>1</v>
-      </c>
-      <c r="BS23" s="54">
-        <v>1</v>
-      </c>
-      <c r="BT23" s="54">
-        <v>1</v>
-      </c>
+      <c r="BB23" s="54"/>
+      <c r="BC23" s="54"/>
+      <c r="BD23" s="54"/>
+      <c r="BE23" s="54"/>
+      <c r="BF23" s="54"/>
+      <c r="BG23" s="54"/>
+      <c r="BH23" s="54"/>
+      <c r="BI23" s="54"/>
+      <c r="BJ23" s="54"/>
+      <c r="BK23" s="54"/>
+      <c r="BL23" s="54"/>
+      <c r="BM23" s="54"/>
+      <c r="BN23" s="54"/>
+      <c r="BO23" s="54"/>
+      <c r="BP23" s="54"/>
+      <c r="BQ23" s="54"/>
+      <c r="BR23" s="54"/>
+      <c r="BS23" s="54"/>
+      <c r="BT23" s="54"/>
     </row>
     <row r="24" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="54">
         <v>13</v>
       </c>
-      <c r="D24" s="179"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="142"/>
-      <c r="M24" s="142"/>
-      <c r="N24" s="142"/>
-      <c r="O24" s="143"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="193"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="155"/>
+      <c r="M24" s="155"/>
+      <c r="N24" s="155"/>
+      <c r="O24" s="156"/>
       <c r="P24" s="58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="55">
         <v>4</v>
       </c>
-      <c r="R24" s="131" t="s">
-        <v>101</v>
+      <c r="R24" s="133" t="s">
+        <v>99</v>
       </c>
       <c r="S24" s="70"/>
       <c r="T24" s="70"/>
@@ -8089,88 +7779,50 @@
       <c r="BA24" s="54">
         <v>1</v>
       </c>
-      <c r="BB24" s="54">
-        <v>1</v>
-      </c>
-      <c r="BC24" s="54">
-        <v>1</v>
-      </c>
-      <c r="BD24" s="54">
-        <v>1</v>
-      </c>
-      <c r="BE24" s="54">
-        <v>1</v>
-      </c>
-      <c r="BF24" s="54">
-        <v>1</v>
-      </c>
-      <c r="BG24" s="54">
-        <v>1</v>
-      </c>
-      <c r="BH24" s="54">
-        <v>1</v>
-      </c>
-      <c r="BI24" s="54">
-        <v>1</v>
-      </c>
-      <c r="BJ24" s="54">
-        <v>1</v>
-      </c>
-      <c r="BK24" s="54">
-        <v>1</v>
-      </c>
-      <c r="BL24" s="54">
-        <v>1</v>
-      </c>
-      <c r="BM24" s="54">
-        <v>1</v>
-      </c>
-      <c r="BN24" s="54">
-        <v>1</v>
-      </c>
-      <c r="BO24" s="54">
-        <v>1</v>
-      </c>
-      <c r="BP24" s="54">
-        <v>1</v>
-      </c>
-      <c r="BQ24" s="54">
-        <v>1</v>
-      </c>
-      <c r="BR24" s="54">
-        <v>1</v>
-      </c>
-      <c r="BS24" s="54">
-        <v>1</v>
-      </c>
-      <c r="BT24" s="54">
-        <v>1</v>
-      </c>
+      <c r="BB24" s="54"/>
+      <c r="BC24" s="54"/>
+      <c r="BD24" s="54"/>
+      <c r="BE24" s="54"/>
+      <c r="BF24" s="54"/>
+      <c r="BG24" s="54"/>
+      <c r="BH24" s="54"/>
+      <c r="BI24" s="54"/>
+      <c r="BJ24" s="54"/>
+      <c r="BK24" s="54"/>
+      <c r="BL24" s="54"/>
+      <c r="BM24" s="54"/>
+      <c r="BN24" s="54"/>
+      <c r="BO24" s="54"/>
+      <c r="BP24" s="54"/>
+      <c r="BQ24" s="54"/>
+      <c r="BR24" s="54"/>
+      <c r="BS24" s="54"/>
+      <c r="BT24" s="54"/>
     </row>
     <row r="25" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="54">
         <v>14</v>
       </c>
-      <c r="D25" s="179"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="142"/>
-      <c r="L25" s="142"/>
-      <c r="M25" s="142"/>
-      <c r="N25" s="142"/>
-      <c r="O25" s="143"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="155"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="155"/>
+      <c r="O25" s="156"/>
       <c r="P25" s="58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q25" s="55">
         <v>5</v>
       </c>
-      <c r="R25" s="131" t="s">
-        <v>102</v>
+      <c r="R25" s="133" t="s">
+        <v>100</v>
       </c>
       <c r="S25" s="70"/>
       <c r="T25" s="70"/>
@@ -8209,88 +7861,50 @@
       <c r="BA25" s="54">
         <v>1</v>
       </c>
-      <c r="BB25" s="54">
-        <v>1</v>
-      </c>
-      <c r="BC25" s="54">
-        <v>1</v>
-      </c>
-      <c r="BD25" s="54">
-        <v>1</v>
-      </c>
-      <c r="BE25" s="54">
-        <v>1</v>
-      </c>
-      <c r="BF25" s="54">
-        <v>1</v>
-      </c>
-      <c r="BG25" s="54">
-        <v>1</v>
-      </c>
-      <c r="BH25" s="54">
-        <v>1</v>
-      </c>
-      <c r="BI25" s="54">
-        <v>1</v>
-      </c>
-      <c r="BJ25" s="54">
-        <v>1</v>
-      </c>
-      <c r="BK25" s="54">
-        <v>1</v>
-      </c>
-      <c r="BL25" s="54">
-        <v>1</v>
-      </c>
-      <c r="BM25" s="54">
-        <v>1</v>
-      </c>
-      <c r="BN25" s="54">
-        <v>1</v>
-      </c>
-      <c r="BO25" s="54">
-        <v>1</v>
-      </c>
-      <c r="BP25" s="54">
-        <v>1</v>
-      </c>
-      <c r="BQ25" s="54">
-        <v>1</v>
-      </c>
-      <c r="BR25" s="54">
-        <v>1</v>
-      </c>
-      <c r="BS25" s="54">
-        <v>1</v>
-      </c>
-      <c r="BT25" s="54">
-        <v>1</v>
-      </c>
+      <c r="BB25" s="54"/>
+      <c r="BC25" s="54"/>
+      <c r="BD25" s="54"/>
+      <c r="BE25" s="54"/>
+      <c r="BF25" s="54"/>
+      <c r="BG25" s="54"/>
+      <c r="BH25" s="54"/>
+      <c r="BI25" s="54"/>
+      <c r="BJ25" s="54"/>
+      <c r="BK25" s="54"/>
+      <c r="BL25" s="54"/>
+      <c r="BM25" s="54"/>
+      <c r="BN25" s="54"/>
+      <c r="BO25" s="54"/>
+      <c r="BP25" s="54"/>
+      <c r="BQ25" s="54"/>
+      <c r="BR25" s="54"/>
+      <c r="BS25" s="54"/>
+      <c r="BT25" s="54"/>
     </row>
     <row r="26" spans="3:72" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="54">
         <v>15</v>
       </c>
-      <c r="D26" s="179"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="142"/>
-      <c r="M26" s="142"/>
-      <c r="N26" s="142"/>
-      <c r="O26" s="143"/>
+      <c r="D26" s="192"/>
+      <c r="E26" s="193"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="156"/>
       <c r="P26" s="58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q26" s="55">
         <v>6</v>
       </c>
-      <c r="R26" s="131" t="s">
-        <v>103</v>
+      <c r="R26" s="133" t="s">
+        <v>101</v>
       </c>
       <c r="S26" s="70"/>
       <c r="T26" s="70"/>
@@ -8329,88 +7943,50 @@
       <c r="BA26" s="54">
         <v>1</v>
       </c>
-      <c r="BB26" s="54">
-        <v>1</v>
-      </c>
-      <c r="BC26" s="54">
-        <v>1</v>
-      </c>
-      <c r="BD26" s="54">
-        <v>1</v>
-      </c>
-      <c r="BE26" s="54">
-        <v>1</v>
-      </c>
-      <c r="BF26" s="54">
-        <v>1</v>
-      </c>
-      <c r="BG26" s="54">
-        <v>1</v>
-      </c>
-      <c r="BH26" s="54">
-        <v>1</v>
-      </c>
-      <c r="BI26" s="54">
-        <v>1</v>
-      </c>
-      <c r="BJ26" s="54">
-        <v>1</v>
-      </c>
-      <c r="BK26" s="54">
-        <v>1</v>
-      </c>
-      <c r="BL26" s="54">
-        <v>1</v>
-      </c>
-      <c r="BM26" s="54">
-        <v>1</v>
-      </c>
-      <c r="BN26" s="54">
-        <v>1</v>
-      </c>
-      <c r="BO26" s="54">
-        <v>1</v>
-      </c>
-      <c r="BP26" s="54">
-        <v>1</v>
-      </c>
-      <c r="BQ26" s="54">
-        <v>1</v>
-      </c>
-      <c r="BR26" s="54">
-        <v>1</v>
-      </c>
-      <c r="BS26" s="54">
-        <v>1</v>
-      </c>
-      <c r="BT26" s="54">
-        <v>1</v>
-      </c>
+      <c r="BB26" s="54"/>
+      <c r="BC26" s="54"/>
+      <c r="BD26" s="54"/>
+      <c r="BE26" s="54"/>
+      <c r="BF26" s="54"/>
+      <c r="BG26" s="54"/>
+      <c r="BH26" s="54"/>
+      <c r="BI26" s="54"/>
+      <c r="BJ26" s="54"/>
+      <c r="BK26" s="54"/>
+      <c r="BL26" s="54"/>
+      <c r="BM26" s="54"/>
+      <c r="BN26" s="54"/>
+      <c r="BO26" s="54"/>
+      <c r="BP26" s="54"/>
+      <c r="BQ26" s="54"/>
+      <c r="BR26" s="54"/>
+      <c r="BS26" s="54"/>
+      <c r="BT26" s="54"/>
     </row>
     <row r="27" spans="3:72" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="54">
         <v>16</v>
       </c>
-      <c r="D27" s="179"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="142"/>
-      <c r="M27" s="142"/>
-      <c r="N27" s="142"/>
-      <c r="O27" s="143"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="193"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="156"/>
       <c r="P27" s="58" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q27" s="55">
         <v>7</v>
       </c>
-      <c r="R27" s="131" t="s">
-        <v>104</v>
+      <c r="R27" s="133" t="s">
+        <v>102</v>
       </c>
       <c r="S27" s="70"/>
       <c r="T27" s="70"/>
@@ -8449,88 +8025,50 @@
       <c r="BA27" s="54">
         <v>1</v>
       </c>
-      <c r="BB27" s="54">
-        <v>1</v>
-      </c>
-      <c r="BC27" s="54">
-        <v>1</v>
-      </c>
-      <c r="BD27" s="54">
-        <v>1</v>
-      </c>
-      <c r="BE27" s="54">
-        <v>1</v>
-      </c>
-      <c r="BF27" s="54">
-        <v>1</v>
-      </c>
-      <c r="BG27" s="54">
-        <v>1</v>
-      </c>
-      <c r="BH27" s="54">
-        <v>1</v>
-      </c>
-      <c r="BI27" s="54">
-        <v>1</v>
-      </c>
-      <c r="BJ27" s="54">
-        <v>1</v>
-      </c>
-      <c r="BK27" s="54">
-        <v>1</v>
-      </c>
-      <c r="BL27" s="54">
-        <v>1</v>
-      </c>
-      <c r="BM27" s="54">
-        <v>1</v>
-      </c>
-      <c r="BN27" s="54">
-        <v>1</v>
-      </c>
-      <c r="BO27" s="54">
-        <v>1</v>
-      </c>
-      <c r="BP27" s="54">
-        <v>1</v>
-      </c>
-      <c r="BQ27" s="54">
-        <v>1</v>
-      </c>
-      <c r="BR27" s="54">
-        <v>1</v>
-      </c>
-      <c r="BS27" s="54">
-        <v>1</v>
-      </c>
-      <c r="BT27" s="54">
-        <v>1</v>
-      </c>
+      <c r="BB27" s="54"/>
+      <c r="BC27" s="54"/>
+      <c r="BD27" s="54"/>
+      <c r="BE27" s="54"/>
+      <c r="BF27" s="54"/>
+      <c r="BG27" s="54"/>
+      <c r="BH27" s="54"/>
+      <c r="BI27" s="54"/>
+      <c r="BJ27" s="54"/>
+      <c r="BK27" s="54"/>
+      <c r="BL27" s="54"/>
+      <c r="BM27" s="54"/>
+      <c r="BN27" s="54"/>
+      <c r="BO27" s="54"/>
+      <c r="BP27" s="54"/>
+      <c r="BQ27" s="54"/>
+      <c r="BR27" s="54"/>
+      <c r="BS27" s="54"/>
+      <c r="BT27" s="54"/>
     </row>
     <row r="28" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="54">
         <v>17</v>
       </c>
-      <c r="D28" s="179"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="142"/>
-      <c r="L28" s="142"/>
-      <c r="M28" s="142"/>
-      <c r="N28" s="142"/>
-      <c r="O28" s="143"/>
+      <c r="D28" s="192"/>
+      <c r="E28" s="193"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="155"/>
+      <c r="O28" s="156"/>
       <c r="P28" s="58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q28" s="55">
         <v>8</v>
       </c>
-      <c r="R28" s="131" t="s">
-        <v>105</v>
+      <c r="R28" s="133" t="s">
+        <v>103</v>
       </c>
       <c r="S28" s="70"/>
       <c r="T28" s="70"/>
@@ -8569,88 +8107,50 @@
       <c r="BA28" s="54">
         <v>1</v>
       </c>
-      <c r="BB28" s="54">
-        <v>1</v>
-      </c>
-      <c r="BC28" s="54">
-        <v>1</v>
-      </c>
-      <c r="BD28" s="54">
-        <v>1</v>
-      </c>
-      <c r="BE28" s="54">
-        <v>1</v>
-      </c>
-      <c r="BF28" s="54">
-        <v>1</v>
-      </c>
-      <c r="BG28" s="54">
-        <v>1</v>
-      </c>
-      <c r="BH28" s="54">
-        <v>1</v>
-      </c>
-      <c r="BI28" s="54">
-        <v>1</v>
-      </c>
-      <c r="BJ28" s="54">
-        <v>1</v>
-      </c>
-      <c r="BK28" s="54">
-        <v>1</v>
-      </c>
-      <c r="BL28" s="54">
-        <v>1</v>
-      </c>
-      <c r="BM28" s="54">
-        <v>1</v>
-      </c>
-      <c r="BN28" s="54">
-        <v>1</v>
-      </c>
-      <c r="BO28" s="54">
-        <v>1</v>
-      </c>
-      <c r="BP28" s="54">
-        <v>1</v>
-      </c>
-      <c r="BQ28" s="54">
-        <v>1</v>
-      </c>
-      <c r="BR28" s="54">
-        <v>1</v>
-      </c>
-      <c r="BS28" s="54">
-        <v>1</v>
-      </c>
-      <c r="BT28" s="54">
-        <v>1</v>
-      </c>
+      <c r="BB28" s="54"/>
+      <c r="BC28" s="54"/>
+      <c r="BD28" s="54"/>
+      <c r="BE28" s="54"/>
+      <c r="BF28" s="54"/>
+      <c r="BG28" s="54"/>
+      <c r="BH28" s="54"/>
+      <c r="BI28" s="54"/>
+      <c r="BJ28" s="54"/>
+      <c r="BK28" s="54"/>
+      <c r="BL28" s="54"/>
+      <c r="BM28" s="54"/>
+      <c r="BN28" s="54"/>
+      <c r="BO28" s="54"/>
+      <c r="BP28" s="54"/>
+      <c r="BQ28" s="54"/>
+      <c r="BR28" s="54"/>
+      <c r="BS28" s="54"/>
+      <c r="BT28" s="54"/>
     </row>
     <row r="29" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="54">
         <v>18</v>
       </c>
-      <c r="D29" s="181"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="145"/>
-      <c r="L29" s="145"/>
-      <c r="M29" s="145"/>
-      <c r="N29" s="145"/>
-      <c r="O29" s="146"/>
+      <c r="D29" s="194"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="158"/>
+      <c r="L29" s="158"/>
+      <c r="M29" s="158"/>
+      <c r="N29" s="158"/>
+      <c r="O29" s="159"/>
       <c r="P29" s="58" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q29" s="55">
         <v>9</v>
       </c>
-      <c r="R29" s="131" t="s">
-        <v>106</v>
+      <c r="R29" s="133" t="s">
+        <v>104</v>
       </c>
       <c r="S29" s="70"/>
       <c r="T29" s="70"/>
@@ -8689,83 +8189,379 @@
       <c r="BA29" s="54">
         <v>1</v>
       </c>
-      <c r="BB29" s="54">
+      <c r="BB29" s="54"/>
+      <c r="BC29" s="54"/>
+      <c r="BD29" s="54"/>
+      <c r="BE29" s="54"/>
+      <c r="BF29" s="54"/>
+      <c r="BG29" s="54"/>
+      <c r="BH29" s="54"/>
+      <c r="BI29" s="54"/>
+      <c r="BJ29" s="54"/>
+      <c r="BK29" s="54"/>
+      <c r="BL29" s="54"/>
+      <c r="BM29" s="54"/>
+      <c r="BN29" s="54"/>
+      <c r="BO29" s="54"/>
+      <c r="BP29" s="54"/>
+      <c r="BQ29" s="54"/>
+      <c r="BR29" s="54"/>
+      <c r="BS29" s="54"/>
+      <c r="BT29" s="54"/>
+    </row>
+    <row r="30" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="54">
+        <v>19</v>
+      </c>
+      <c r="D30" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="134"/>
+      <c r="F30" s="137" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30" s="140"/>
+      <c r="L30" s="140"/>
+      <c r="M30" s="140"/>
+      <c r="N30" s="140"/>
+      <c r="O30" s="140"/>
+      <c r="P30" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q30" s="55">
         <v>1</v>
       </c>
-      <c r="BC29" s="54">
+      <c r="R30" s="133" t="s">
+        <v>116</v>
+      </c>
+      <c r="S30" s="70"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="69"/>
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="69"/>
+      <c r="AD30" s="70"/>
+      <c r="AE30" s="71"/>
+      <c r="AF30" s="69"/>
+      <c r="AG30" s="70"/>
+      <c r="AH30" s="71"/>
+      <c r="AI30" s="69"/>
+      <c r="AJ30" s="70"/>
+      <c r="AK30" s="71"/>
+      <c r="AL30" s="69"/>
+      <c r="AM30" s="70"/>
+      <c r="AN30" s="71"/>
+      <c r="AO30" s="69"/>
+      <c r="AP30" s="70"/>
+      <c r="AQ30" s="71"/>
+      <c r="AR30" s="69"/>
+      <c r="AS30" s="70"/>
+      <c r="AT30" s="71"/>
+      <c r="AU30" s="69"/>
+      <c r="AV30" s="70"/>
+      <c r="AW30" s="71"/>
+      <c r="AX30" s="69"/>
+      <c r="AY30" s="70"/>
+      <c r="AZ30" s="71"/>
+      <c r="BA30" s="54">
         <v>1</v>
       </c>
-      <c r="BD29" s="54">
+      <c r="BB30" s="54"/>
+      <c r="BC30" s="54"/>
+      <c r="BD30" s="54"/>
+      <c r="BE30" s="54"/>
+      <c r="BF30" s="54"/>
+      <c r="BG30" s="54"/>
+      <c r="BH30" s="54"/>
+      <c r="BI30" s="54"/>
+      <c r="BJ30" s="54"/>
+      <c r="BK30" s="54"/>
+      <c r="BL30" s="54"/>
+      <c r="BM30" s="54"/>
+      <c r="BN30" s="54"/>
+      <c r="BO30" s="54"/>
+      <c r="BP30" s="54"/>
+      <c r="BQ30" s="54"/>
+      <c r="BR30" s="54"/>
+      <c r="BS30" s="54"/>
+      <c r="BT30" s="54"/>
+    </row>
+    <row r="31" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="54">
+        <v>20</v>
+      </c>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="141"/>
+      <c r="P31" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q31" s="55">
+        <v>2</v>
+      </c>
+      <c r="R31" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="S31" s="70"/>
+      <c r="T31" s="70"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="69"/>
+      <c r="AA31" s="70"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="69"/>
+      <c r="AD31" s="70"/>
+      <c r="AE31" s="71"/>
+      <c r="AF31" s="69"/>
+      <c r="AG31" s="70"/>
+      <c r="AH31" s="71"/>
+      <c r="AI31" s="69"/>
+      <c r="AJ31" s="70"/>
+      <c r="AK31" s="71"/>
+      <c r="AL31" s="69"/>
+      <c r="AM31" s="70"/>
+      <c r="AN31" s="71"/>
+      <c r="AO31" s="69"/>
+      <c r="AP31" s="70"/>
+      <c r="AQ31" s="71"/>
+      <c r="AR31" s="69"/>
+      <c r="AS31" s="70"/>
+      <c r="AT31" s="71"/>
+      <c r="AU31" s="69"/>
+      <c r="AV31" s="70"/>
+      <c r="AW31" s="71"/>
+      <c r="AX31" s="69"/>
+      <c r="AY31" s="70"/>
+      <c r="AZ31" s="71"/>
+      <c r="BA31" s="54">
         <v>1</v>
       </c>
-      <c r="BE29" s="54">
+      <c r="BB31" s="54"/>
+      <c r="BC31" s="54"/>
+      <c r="BD31" s="54"/>
+      <c r="BE31" s="54"/>
+      <c r="BF31" s="54"/>
+      <c r="BG31" s="54"/>
+      <c r="BH31" s="54"/>
+      <c r="BI31" s="54"/>
+      <c r="BJ31" s="54"/>
+      <c r="BK31" s="54"/>
+      <c r="BL31" s="54"/>
+      <c r="BM31" s="54"/>
+      <c r="BN31" s="54"/>
+      <c r="BO31" s="54"/>
+      <c r="BP31" s="54"/>
+      <c r="BQ31" s="54"/>
+      <c r="BR31" s="54"/>
+      <c r="BS31" s="54"/>
+      <c r="BT31" s="54"/>
+    </row>
+    <row r="32" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="54">
+        <v>21</v>
+      </c>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="141"/>
+      <c r="O32" s="141"/>
+      <c r="P32" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q32" s="55">
+        <v>3</v>
+      </c>
+      <c r="R32" s="133" t="s">
+        <v>118</v>
+      </c>
+      <c r="S32" s="70"/>
+      <c r="T32" s="70"/>
+      <c r="U32" s="69"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="69"/>
+      <c r="X32" s="70"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="69"/>
+      <c r="AA32" s="70"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="69"/>
+      <c r="AD32" s="70"/>
+      <c r="AE32" s="71"/>
+      <c r="AF32" s="69"/>
+      <c r="AG32" s="70"/>
+      <c r="AH32" s="71"/>
+      <c r="AI32" s="69"/>
+      <c r="AJ32" s="70"/>
+      <c r="AK32" s="71"/>
+      <c r="AL32" s="69"/>
+      <c r="AM32" s="70"/>
+      <c r="AN32" s="71"/>
+      <c r="AO32" s="69"/>
+      <c r="AP32" s="70"/>
+      <c r="AQ32" s="71"/>
+      <c r="AR32" s="69"/>
+      <c r="AS32" s="70"/>
+      <c r="AT32" s="71"/>
+      <c r="AU32" s="69"/>
+      <c r="AV32" s="70"/>
+      <c r="AW32" s="71"/>
+      <c r="AX32" s="69"/>
+      <c r="AY32" s="70"/>
+      <c r="AZ32" s="71"/>
+      <c r="BA32" s="54">
         <v>1</v>
       </c>
-      <c r="BF29" s="54">
+      <c r="BB32" s="54"/>
+      <c r="BC32" s="54"/>
+      <c r="BD32" s="54"/>
+      <c r="BE32" s="54"/>
+      <c r="BF32" s="54"/>
+      <c r="BG32" s="54"/>
+      <c r="BH32" s="54"/>
+      <c r="BI32" s="54"/>
+      <c r="BJ32" s="54"/>
+      <c r="BK32" s="54"/>
+      <c r="BL32" s="54"/>
+      <c r="BM32" s="54"/>
+      <c r="BN32" s="54"/>
+      <c r="BO32" s="54"/>
+      <c r="BP32" s="54"/>
+      <c r="BQ32" s="54"/>
+      <c r="BR32" s="54"/>
+      <c r="BS32" s="54"/>
+      <c r="BT32" s="54"/>
+    </row>
+    <row r="33" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="54">
+        <v>22</v>
+      </c>
+      <c r="D33" s="136"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="142"/>
+      <c r="M33" s="142"/>
+      <c r="N33" s="142"/>
+      <c r="O33" s="142"/>
+      <c r="P33" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q33" s="55">
+        <v>4</v>
+      </c>
+      <c r="R33" s="133" t="s">
+        <v>119</v>
+      </c>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="69"/>
+      <c r="X33" s="70"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="69"/>
+      <c r="AA33" s="70"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="69"/>
+      <c r="AD33" s="70"/>
+      <c r="AE33" s="71"/>
+      <c r="AF33" s="69"/>
+      <c r="AG33" s="70"/>
+      <c r="AH33" s="71"/>
+      <c r="AI33" s="69"/>
+      <c r="AJ33" s="70"/>
+      <c r="AK33" s="71"/>
+      <c r="AL33" s="69"/>
+      <c r="AM33" s="70"/>
+      <c r="AN33" s="71"/>
+      <c r="AO33" s="69"/>
+      <c r="AP33" s="70"/>
+      <c r="AQ33" s="71"/>
+      <c r="AR33" s="69"/>
+      <c r="AS33" s="70"/>
+      <c r="AT33" s="71"/>
+      <c r="AU33" s="69"/>
+      <c r="AV33" s="70"/>
+      <c r="AW33" s="71"/>
+      <c r="AX33" s="69"/>
+      <c r="AY33" s="70"/>
+      <c r="AZ33" s="71"/>
+      <c r="BA33" s="54">
         <v>1</v>
       </c>
-      <c r="BG29" s="54">
-        <v>1</v>
-      </c>
-      <c r="BH29" s="54">
-        <v>1</v>
-      </c>
-      <c r="BI29" s="54">
-        <v>1</v>
-      </c>
-      <c r="BJ29" s="54">
-        <v>1</v>
-      </c>
-      <c r="BK29" s="54">
-        <v>1</v>
-      </c>
-      <c r="BL29" s="54">
-        <v>1</v>
-      </c>
-      <c r="BM29" s="54">
-        <v>1</v>
-      </c>
-      <c r="BN29" s="54">
-        <v>1</v>
-      </c>
-      <c r="BO29" s="54">
-        <v>1</v>
-      </c>
-      <c r="BP29" s="54">
-        <v>1</v>
-      </c>
-      <c r="BQ29" s="54">
-        <v>1</v>
-      </c>
-      <c r="BR29" s="54">
-        <v>1</v>
-      </c>
-      <c r="BS29" s="54">
-        <v>1</v>
-      </c>
-      <c r="BT29" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="BB33" s="54"/>
+      <c r="BC33" s="54"/>
+      <c r="BD33" s="54"/>
+      <c r="BE33" s="54"/>
+      <c r="BF33" s="54"/>
+      <c r="BG33" s="54"/>
+      <c r="BH33" s="54"/>
+      <c r="BI33" s="54"/>
+      <c r="BJ33" s="54"/>
+      <c r="BK33" s="54"/>
+      <c r="BL33" s="54"/>
+      <c r="BM33" s="54"/>
+      <c r="BN33" s="54"/>
+      <c r="BO33" s="54"/>
+      <c r="BP33" s="54"/>
+      <c r="BQ33" s="54"/>
+      <c r="BR33" s="54"/>
+      <c r="BS33" s="54"/>
+      <c r="BT33" s="54"/>
+    </row>
+    <row r="34" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="3:72" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="257">
+  <mergeCells count="308">
     <mergeCell ref="AC22:AE22"/>
     <mergeCell ref="AF22:AH22"/>
     <mergeCell ref="AI22:AK22"/>
@@ -9023,6 +8819,57 @@
     <mergeCell ref="AC28:AE28"/>
     <mergeCell ref="AF28:AH28"/>
     <mergeCell ref="AI28:AK28"/>
+    <mergeCell ref="D30:E33"/>
+    <mergeCell ref="F30:I33"/>
+    <mergeCell ref="J30:O33"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="AF30:AH30"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="AF32:AH32"/>
+    <mergeCell ref="AI30:AK30"/>
+    <mergeCell ref="AL30:AN30"/>
+    <mergeCell ref="AO30:AQ30"/>
+    <mergeCell ref="AR30:AT30"/>
+    <mergeCell ref="AU30:AW30"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="AF31:AH31"/>
+    <mergeCell ref="AI31:AK31"/>
+    <mergeCell ref="AL31:AN31"/>
+    <mergeCell ref="AO31:AQ31"/>
+    <mergeCell ref="AR31:AT31"/>
+    <mergeCell ref="AU31:AW31"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="AI32:AK32"/>
+    <mergeCell ref="AL32:AN32"/>
+    <mergeCell ref="AO32:AQ32"/>
+    <mergeCell ref="AR32:AT32"/>
+    <mergeCell ref="AU32:AW32"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="AF33:AH33"/>
+    <mergeCell ref="AI33:AK33"/>
+    <mergeCell ref="AL33:AN33"/>
+    <mergeCell ref="AO33:AQ33"/>
+    <mergeCell ref="AR33:AT33"/>
+    <mergeCell ref="AU33:AW33"/>
+    <mergeCell ref="AX33:AZ33"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
